--- a/data/trans_orig/P69_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P69_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C781DB2C-ABF4-4CA3-B0F8-FFFF929CBB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF4B5FE-A23B-4827-B5CD-0F14840CBEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9A5CD64-B2D9-4081-897B-F4721A3A69F0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD0AEED5-E9C5-496D-975E-EA02961A2B71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>98,16%</t>
   </si>
   <si>
-    <t>88,99%</t>
+    <t>90,44%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,7 +92,7 @@
     <t>98,71%</t>
   </si>
   <si>
-    <t>93,51%</t>
+    <t>93,42%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,01%</t>
+    <t>9,56%</t>
   </si>
   <si>
     <t>0%</t>
@@ -116,7 +116,7 @@
     <t>1,29%</t>
   </si>
   <si>
-    <t>6,49%</t>
+    <t>6,58%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -125,7 +125,7 @@
     <t>98,6%</t>
   </si>
   <si>
-    <t>95,48%</t>
+    <t>95,2%</t>
   </si>
   <si>
     <t>97,51%</t>
@@ -134,13 +134,13 @@
     <t>99,1%</t>
   </si>
   <si>
-    <t>97,26%</t>
+    <t>96,84%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>4,52%</t>
+    <t>4,8%</t>
   </si>
   <si>
     <t>2,49%</t>
@@ -149,7 +149,7 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>2,74%</t>
+    <t>3,16%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -179,7 +179,7 @@
     <t>99,09%</t>
   </si>
   <si>
-    <t>95,32%</t>
+    <t>95,34%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -188,13 +188,13 @@
     <t>99,31%</t>
   </si>
   <si>
-    <t>97,19%</t>
+    <t>96,62%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>4,68%</t>
+    <t>4,66%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -203,7 +203,7 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>3,38%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -242,7 +242,7 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>98,04%</t>
+    <t>98,13%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -254,145 +254,145 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,62%</t>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>0,75%</t>
   </si>
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2015 (Tasa respuesta: 8,05%)</t>
@@ -419,7 +419,7 @@
     <t>98,79%</t>
   </si>
   <si>
-    <t>95,05%</t>
+    <t>93,92%</t>
   </si>
   <si>
     <t>96,1%</t>
@@ -428,13 +428,13 @@
     <t>99,23%</t>
   </si>
   <si>
-    <t>96,15%</t>
+    <t>95,84%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>4,95%</t>
+    <t>6,08%</t>
   </si>
   <si>
     <t>3,9%</t>
@@ -443,70 +443,67 @@
     <t>0,77%</t>
   </si>
   <si>
-    <t>3,85%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>94,16%</t>
+    <t>94,04%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>96,46%</t>
+    <t>96,45%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>5,84%</t>
+    <t>5,96%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>3,54%</t>
+    <t>3,55%</t>
   </si>
   <si>
     <t>98,87%</t>
   </si>
   <si>
-    <t>94,26%</t>
+    <t>93,28%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>89,88%</t>
+    <t>91,78%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>95,0%</t>
+    <t>94,44%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>6,72%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>10,12%</t>
+    <t>8,22%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>5,56%</t>
   </si>
   <si>
     <t>92,94%</t>
@@ -515,9 +512,6 @@
     <t>97,14%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
     <t>7,06%</t>
   </si>
   <si>
@@ -533,49 +527,49 @@
     <t>98,89%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>97,3%</t>
+    <t>97,88%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,7%</t>
+    <t>2,12%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
@@ -593,13 +587,13 @@
     <t>98,31%</t>
   </si>
   <si>
-    <t>91,08%</t>
+    <t>91,47%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>96,4%</t>
+    <t>95,22%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -608,163 +602,169 @@
     <t>1,69%</t>
   </si>
   <si>
-    <t>8,92%</t>
+    <t>8,53%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>95,11%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>95,23%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>1,92%</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71304707-3119-4A9D-9991-D3F319D49A8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87054F3F-6CF0-443A-BA16-8E60D0769A7A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2257,10 +2257,10 @@
         <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2275,13 @@
         <v>3855</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2305,13 +2305,13 @@
         <v>3855</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,7 +2367,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3853F379-1549-4B58-948C-F20CA25832F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB199AB6-3849-4FBF-803B-47DF2D79DE1A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2406,7 +2406,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2516,7 +2516,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -2531,7 +2531,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -2546,7 +2546,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -2570,7 +2570,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2585,7 +2585,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,7 +2671,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -2701,7 +2701,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -2725,7 +2725,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,7 +2826,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -2841,7 +2841,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -2856,7 +2856,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -2880,7 +2880,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2910,7 +2910,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,7 +2981,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -3011,7 +3011,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -3035,7 +3035,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,10 +3133,10 @@
         <v>43114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3151,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -3163,10 +3163,10 @@
         <v>67696</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3184,13 +3184,13 @@
         <v>813</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3214,13 +3214,13 @@
         <v>813</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,10 +3425,10 @@
         <v>330639</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3443,7 +3443,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3455,10 +3455,10 @@
         <v>546466</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3476,13 +3476,13 @@
         <v>813</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3497,7 +3497,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3506,7 +3506,7 @@
         <v>813</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
@@ -3568,7 +3568,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3590,7 +3590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F67CD7-03DA-4245-9BBF-539528C8FAE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9E7CC0-6835-40AC-9139-EE79363591B2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4337,7 +4337,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -4352,7 +4352,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -4367,7 +4367,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -4391,7 +4391,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4421,7 +4421,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,7 +4492,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -4520,7 +4520,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -4544,7 +4544,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4638,13 @@
         <v>346111</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H22" s="7">
         <v>206</v>
@@ -4653,10 +4653,10 @@
         <v>215186</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -4668,13 +4668,13 @@
         <v>561297</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4689,13 @@
         <v>3890</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -4704,13 +4704,13 @@
         <v>1112</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -4719,13 +4719,13 @@
         <v>5002</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,7 +4781,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4803,7 +4803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAB6229-9A90-41E0-A8EC-B7AF13067D57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF6295C-8823-4759-B4CE-EC1B7C45CF40}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4820,7 +4820,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4930,7 +4930,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -4945,7 +4945,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4984,7 +4984,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4999,7 +4999,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5085,7 +5085,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -5097,10 +5097,10 @@
         <v>54951</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -5112,10 +5112,10 @@
         <v>113383</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -5139,7 +5139,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5148,13 +5148,13 @@
         <v>946</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -5163,13 +5163,13 @@
         <v>946</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,7 +5240,7 @@
         <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -5255,7 +5255,7 @@
         <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -5267,13 +5267,13 @@
         <v>177382</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,7 +5294,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5303,13 +5303,13 @@
         <v>455</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5318,13 +5318,13 @@
         <v>2408</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,10 +5425,10 @@
         <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,7 +5449,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5458,13 +5458,13 @@
         <v>2373</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5473,13 +5473,13 @@
         <v>3399</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,7 +5550,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -5562,10 +5562,10 @@
         <v>59906</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -5577,10 +5577,10 @@
         <v>131669</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -5604,7 +5604,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5613,13 +5613,13 @@
         <v>159</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5628,13 +5628,13 @@
         <v>159</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,7 +5705,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -5720,7 +5720,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5735,7 +5735,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -5759,7 +5759,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5857,13 @@
         <v>350039</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H22" s="7">
         <v>468</v>
@@ -5872,13 +5872,13 @@
         <v>357279</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M22" s="7">
         <v>803</v>
@@ -5887,13 +5887,13 @@
         <v>707316</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,13 +5908,13 @@
         <v>2979</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -5923,13 +5923,13 @@
         <v>3932</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -6000,7 +6000,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P69_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P69_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF4B5FE-A23B-4827-B5CD-0F14840CBEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BECFC77-BD0B-4DDA-87C4-A0971B3AEB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD0AEED5-E9C5-496D-975E-EA02961A2B71}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{851B128E-9B3F-45CD-A532-B22E1816975C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="246">
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>98,16%</t>
   </si>
   <si>
-    <t>90,44%</t>
+    <t>90,48%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,7 +92,7 @@
     <t>98,71%</t>
   </si>
   <si>
-    <t>93,42%</t>
+    <t>91,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,56%</t>
+    <t>9,52%</t>
   </si>
   <si>
     <t>0%</t>
@@ -116,7 +116,7 @@
     <t>1,29%</t>
   </si>
   <si>
-    <t>6,58%</t>
+    <t>8,28%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -125,7 +125,7 @@
     <t>98,6%</t>
   </si>
   <si>
-    <t>95,2%</t>
+    <t>94,87%</t>
   </si>
   <si>
     <t>97,51%</t>
@@ -134,13 +134,13 @@
     <t>99,1%</t>
   </si>
   <si>
-    <t>96,84%</t>
+    <t>96,83%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>4,8%</t>
+    <t>5,13%</t>
   </si>
   <si>
     <t>2,49%</t>
@@ -149,7 +149,7 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>3,16%</t>
+    <t>3,17%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -179,339 +179,351 @@
     <t>99,09%</t>
   </si>
   <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
     <t>95,34%</t>
   </si>
   <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
     <t>7,06%</t>
   </si>
   <si>
@@ -527,7 +539,7 @@
     <t>98,89%</t>
   </si>
   <si>
-    <t>97,22%</t>
+    <t>97,44%</t>
   </si>
   <si>
     <t>99,72%</t>
@@ -536,16 +548,16 @@
     <t>99,49%</t>
   </si>
   <si>
-    <t>97,88%</t>
+    <t>97,02%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
   </si>
   <si>
     <t>1,11%</t>
@@ -554,22 +566,22 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>2,78%</t>
+    <t>2,56%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,12%</t>
+    <t>2,98%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
@@ -1176,7 +1188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87054F3F-6CF0-443A-BA16-8E60D0769A7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0D274D-0D71-45CE-BE70-7DE3EB04CAF2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2257,10 +2269,10 @@
         <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2287,13 @@
         <v>3855</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2296,7 +2308,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2305,13 +2317,13 @@
         <v>3855</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,7 +2379,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB199AB6-3849-4FBF-803B-47DF2D79DE1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E68CAF5-8FAA-460E-8218-F773F821EE57}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2406,7 +2418,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2516,7 +2528,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -2531,7 +2543,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -2546,7 +2558,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -2570,7 +2582,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2585,7 +2597,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2600,7 +2612,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,7 +2683,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -2701,7 +2713,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -2725,7 +2737,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2755,7 +2767,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,7 +2838,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -2841,7 +2853,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -2856,7 +2868,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -2880,7 +2892,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2895,7 +2907,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2910,7 +2922,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,7 +2993,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -3011,7 +3023,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -3035,7 +3047,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3065,7 +3077,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,10 +3145,10 @@
         <v>43114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3151,7 +3163,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -3163,10 +3175,10 @@
         <v>67696</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3184,13 +3196,13 @@
         <v>813</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3205,7 +3217,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3214,13 +3226,13 @@
         <v>813</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,10 +3437,10 @@
         <v>330639</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3443,7 +3455,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3455,10 +3467,10 @@
         <v>546466</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3476,13 +3488,13 @@
         <v>813</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3497,7 +3509,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3506,13 +3518,13 @@
         <v>813</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3580,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3590,7 +3602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9E7CC0-6835-40AC-9139-EE79363591B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C04F30D-E65D-4653-A4A0-02806F2D680B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3607,7 +3619,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3717,7 +3729,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -3732,7 +3744,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -3747,7 +3759,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -3771,7 +3783,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3786,7 +3798,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3801,7 +3813,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,10 +3881,10 @@
         <v>80589</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3887,7 +3899,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -3899,10 +3911,10 @@
         <v>126880</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3920,13 +3932,13 @@
         <v>983</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3941,7 +3953,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3950,13 +3962,13 @@
         <v>983</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,10 +4036,10 @@
         <v>111251</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4042,7 +4054,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4057,7 +4069,7 @@
         <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4075,13 +4087,13 @@
         <v>1872</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4096,7 +4108,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -4111,7 +4123,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,10 +4191,10 @@
         <v>90393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4194,10 +4206,10 @@
         <v>54995</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4209,10 +4221,10 @@
         <v>145388</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4230,13 +4242,13 @@
         <v>1035</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4245,13 +4257,13 @@
         <v>1112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4260,13 +4272,13 @@
         <v>2147</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,7 +4349,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -4352,7 +4364,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -4367,7 +4379,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -4391,7 +4403,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4406,7 +4418,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4421,7 +4433,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,7 +4504,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -4520,7 +4532,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -4544,7 +4556,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4572,7 +4584,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4650,13 @@
         <v>346111</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H22" s="7">
         <v>206</v>
@@ -4653,10 +4665,10 @@
         <v>215186</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -4668,13 +4680,13 @@
         <v>561297</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4701,13 @@
         <v>3890</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -4704,13 +4716,13 @@
         <v>1112</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -4719,13 +4731,13 @@
         <v>5002</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,7 +4793,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4803,7 +4815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF6295C-8823-4759-B4CE-EC1B7C45CF40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DF828C-249A-4E2C-9309-8E3595B813E7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4820,7 +4832,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4930,7 +4942,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -4945,7 +4957,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4984,7 +4996,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4999,7 +5011,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5085,7 +5097,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -5097,10 +5109,10 @@
         <v>54951</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -5112,10 +5124,10 @@
         <v>113383</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -5139,7 +5151,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5148,13 +5160,13 @@
         <v>946</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -5163,13 +5175,13 @@
         <v>946</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,10 +5249,10 @@
         <v>96787</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -5255,7 +5267,7 @@
         <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -5267,13 +5279,13 @@
         <v>177382</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,13 +5300,13 @@
         <v>1953</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5303,13 +5315,13 @@
         <v>455</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5318,13 +5330,13 @@
         <v>2408</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,7 +5407,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -5407,13 +5419,13 @@
         <v>141658</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>300</v>
@@ -5422,13 +5434,13 @@
         <v>255227</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,7 +5461,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5458,13 +5470,13 @@
         <v>2373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5473,13 +5485,13 @@
         <v>3399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,7 +5562,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -5562,10 +5574,10 @@
         <v>59906</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -5577,10 +5589,10 @@
         <v>131669</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -5604,7 +5616,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5613,13 +5625,13 @@
         <v>159</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5628,13 +5640,13 @@
         <v>159</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,7 +5717,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -5720,7 +5732,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5735,7 +5747,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -5759,7 +5771,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5774,7 +5786,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5789,7 +5801,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5869,13 @@
         <v>350039</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H22" s="7">
         <v>468</v>
@@ -5872,13 +5884,13 @@
         <v>357279</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M22" s="7">
         <v>803</v>
@@ -5887,13 +5899,13 @@
         <v>707316</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,13 +5920,13 @@
         <v>2979</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -5923,13 +5935,13 @@
         <v>3932</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -5938,13 +5950,13 @@
         <v>6912</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,7 +6012,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P69_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P69_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BECFC77-BD0B-4DDA-87C4-A0971B3AEB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73923EAF-E179-4727-B96C-33234D76B3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{851B128E-9B3F-45CD-A532-B22E1816975C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C067D98B-9E1D-4CE7-BD0F-8977569DBAD3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="242">
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>98,16%</t>
   </si>
   <si>
-    <t>90,48%</t>
+    <t>88,99%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,7 +92,7 @@
     <t>98,71%</t>
   </si>
   <si>
-    <t>91,72%</t>
+    <t>93,51%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,52%</t>
+    <t>11,01%</t>
   </si>
   <si>
     <t>0%</t>
@@ -116,7 +116,7 @@
     <t>1,29%</t>
   </si>
   <si>
-    <t>8,28%</t>
+    <t>6,49%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -125,7 +125,7 @@
     <t>98,6%</t>
   </si>
   <si>
-    <t>94,87%</t>
+    <t>95,48%</t>
   </si>
   <si>
     <t>97,51%</t>
@@ -134,13 +134,13 @@
     <t>99,1%</t>
   </si>
   <si>
-    <t>96,83%</t>
+    <t>97,26%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>5,13%</t>
+    <t>4,52%</t>
   </si>
   <si>
     <t>2,49%</t>
@@ -149,7 +149,7 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>3,17%</t>
+    <t>2,74%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -179,7 +179,7 @@
     <t>99,09%</t>
   </si>
   <si>
-    <t>95,04%</t>
+    <t>95,32%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -188,13 +188,13 @@
     <t>99,31%</t>
   </si>
   <si>
-    <t>96,11%</t>
+    <t>97,19%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>4,96%</t>
+    <t>4,68%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -203,7 +203,7 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>3,89%</t>
+    <t>2,81%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -242,10 +242,10 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -254,19 +254,19 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -275,10 +275,10 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -344,7 +344,7 @@
     <t>98,15%</t>
   </si>
   <si>
-    <t>90,58%</t>
+    <t>88,6%</t>
   </si>
   <si>
     <t>91,73%</t>
@@ -353,13 +353,13 @@
     <t>98,81%</t>
   </si>
   <si>
-    <t>93,99%</t>
+    <t>93,93%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>9,42%</t>
+    <t>11,4%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -368,37 +368,31 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>6,01%</t>
+    <t>6,07%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,56%</t>
+    <t>98,86%</t>
   </si>
   <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>99,19%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,44%</t>
+    <t>1,14%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>0,81%</t>
   </si>
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2016 (Tasa respuesta: 8,05%)</t>
@@ -425,7 +419,7 @@
     <t>98,79%</t>
   </si>
   <si>
-    <t>93,95%</t>
+    <t>95,05%</t>
   </si>
   <si>
     <t>96,1%</t>
@@ -434,13 +428,13 @@
     <t>99,23%</t>
   </si>
   <si>
-    <t>95,44%</t>
+    <t>96,15%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>6,05%</t>
+    <t>4,95%</t>
   </si>
   <si>
     <t>3,9%</t>
@@ -449,67 +443,67 @@
     <t>0,77%</t>
   </si>
   <si>
-    <t>4,56%</t>
+    <t>3,85%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>93,44%</t>
+    <t>94,16%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>96,86%</t>
+    <t>96,46%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>6,56%</t>
+    <t>5,84%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>3,14%</t>
+    <t>3,54%</t>
   </si>
   <si>
     <t>98,87%</t>
   </si>
   <si>
-    <t>93,32%</t>
+    <t>94,26%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>89,61%</t>
+    <t>89,88%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>95,51%</t>
+    <t>95,0%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>6,68%</t>
+    <t>5,74%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>10,39%</t>
+    <t>10,12%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>4,49%</t>
+    <t>5,0%</t>
   </si>
   <si>
     <t>95,34%</t>
@@ -539,22 +533,22 @@
     <t>98,89%</t>
   </si>
   <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>97,02%</t>
+    <t>97,3%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>98,01%</t>
+    <t>98,1%</t>
   </si>
   <si>
     <t>99,66%</t>
@@ -563,16 +557,16 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,98%</t>
+    <t>2,7%</t>
   </si>
   <si>
     <t>0,88%</t>
@@ -581,7 +575,7 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,99%</t>
+    <t>1,9%</t>
   </si>
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
@@ -599,13 +593,13 @@
     <t>98,31%</t>
   </si>
   <si>
-    <t>91,47%</t>
+    <t>91,08%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>95,22%</t>
+    <t>96,4%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -614,73 +608,73 @@
     <t>1,69%</t>
   </si>
   <si>
-    <t>8,53%</t>
+    <t>8,92%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>95,11%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>97,54%</t>
@@ -692,7 +686,7 @@
     <t>99,88%</t>
   </si>
   <si>
-    <t>99,41%</t>
+    <t>99,34%</t>
   </si>
   <si>
     <t>2,46%</t>
@@ -704,7 +698,7 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,59%</t>
+    <t>0,66%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -728,7 +722,7 @@
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,65%</t>
+    <t>97,53%</t>
   </si>
   <si>
     <t>99,78%</t>
@@ -737,46 +731,40 @@
     <t>98,91%</t>
   </si>
   <si>
-    <t>97,68%</t>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
     <t>0,84%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>2,35%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
+    <t>1,8%</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0D274D-0D71-45CE-BE70-7DE3EB04CAF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A82601E-B805-4FEA-88B2-FF8205CE9F7B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2401,7 +2389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E68CAF5-8FAA-460E-8218-F773F821EE57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F266C616-51C7-4B15-94CA-630102E6D78F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3467,10 +3455,10 @@
         <v>546466</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3488,13 +3476,13 @@
         <v>813</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3509,7 +3497,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3518,13 +3506,13 @@
         <v>813</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,7 +3590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C04F30D-E65D-4653-A4A0-02806F2D680B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D8BFBD-64B8-4B49-9525-39DE9EC37130}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3619,7 +3607,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3729,7 +3717,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -3744,7 +3732,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -3759,7 +3747,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -3783,7 +3771,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3798,7 +3786,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3813,7 +3801,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,10 +3869,10 @@
         <v>80589</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3899,7 +3887,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -3911,10 +3899,10 @@
         <v>126880</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3932,13 +3920,13 @@
         <v>983</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3953,7 +3941,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3962,13 +3950,13 @@
         <v>983</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,10 +4024,10 @@
         <v>111251</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4054,7 +4042,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4069,7 +4057,7 @@
         <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4087,13 +4075,13 @@
         <v>1872</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4108,7 +4096,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -4123,7 +4111,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,10 +4179,10 @@
         <v>90393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4206,10 +4194,10 @@
         <v>54995</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4221,10 +4209,10 @@
         <v>145388</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4242,13 +4230,13 @@
         <v>1035</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4257,13 +4245,13 @@
         <v>1112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4272,13 +4260,13 @@
         <v>2147</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,7 +4337,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -4364,7 +4352,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -4379,7 +4367,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -4403,7 +4391,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4418,7 +4406,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4433,7 +4421,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,7 +4492,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -4532,7 +4520,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -4556,7 +4544,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4584,7 +4572,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4638,13 @@
         <v>346111</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H22" s="7">
         <v>206</v>
@@ -4665,10 +4653,10 @@
         <v>215186</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -4680,13 +4668,13 @@
         <v>561297</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4689,13 @@
         <v>3890</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -4716,13 +4704,13 @@
         <v>1112</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -4731,13 +4719,13 @@
         <v>5002</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,7 +4803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DF828C-249A-4E2C-9309-8E3595B813E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A265501-6EB9-4C5E-9D3B-EE068B1BC954}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4832,7 +4820,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4942,7 +4930,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -4996,7 +4984,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5097,7 +5085,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -5109,10 +5097,10 @@
         <v>54951</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -5124,10 +5112,10 @@
         <v>113383</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -5151,7 +5139,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5160,13 +5148,13 @@
         <v>946</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -5175,13 +5163,13 @@
         <v>946</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,10 +5237,10 @@
         <v>96787</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -5267,7 +5255,7 @@
         <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -5279,10 +5267,10 @@
         <v>177382</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>110</v>
@@ -5300,13 +5288,13 @@
         <v>1953</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5321,7 +5309,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5330,13 +5318,13 @@
         <v>2408</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,7 +5395,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -5419,13 +5407,13 @@
         <v>141658</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>300</v>
@@ -5434,13 +5422,13 @@
         <v>255227</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,7 +5449,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5470,13 +5458,13 @@
         <v>2373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5485,13 +5473,13 @@
         <v>3399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,7 +5550,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -5574,10 +5562,10 @@
         <v>59906</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -5589,10 +5577,10 @@
         <v>131669</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -5616,7 +5604,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5625,13 +5613,13 @@
         <v>159</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5640,13 +5628,13 @@
         <v>159</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,7 +5705,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -5732,7 +5720,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5747,7 +5735,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -5771,7 +5759,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5786,7 +5774,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5801,7 +5789,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5857,13 @@
         <v>350039</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H22" s="7">
         <v>468</v>
@@ -5884,13 +5872,13 @@
         <v>357279</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M22" s="7">
         <v>803</v>
@@ -5899,13 +5887,13 @@
         <v>707316</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5908,13 @@
         <v>2979</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -5935,13 +5923,13 @@
         <v>3932</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -5950,13 +5938,13 @@
         <v>6912</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P69_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P69_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73923EAF-E179-4727-B96C-33234D76B3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{142A924E-EF32-4D7D-B6B1-F60C1F1359D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C067D98B-9E1D-4CE7-BD0F-8977569DBAD3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{66A13ABE-E310-4688-9E73-2C41F2F51132}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="245">
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -119,7 +119,7 @@
     <t>6,49%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>98,6%</t>
@@ -152,7 +152,7 @@
     <t>2,74%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>98,44%</t>
@@ -173,7 +173,7 @@
     <t>1,01%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>99,09%</t>
@@ -206,7 +206,7 @@
     <t>2,81%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>96,02%</t>
@@ -227,15 +227,18 @@
     <t>3,09%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>77,15%</t>
   </si>
   <si>
@@ -590,115 +593,127 @@
     <t>95,56%</t>
   </si>
   <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>97,54%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -719,52 +734,46 @@
     <t>15,69%</t>
   </si>
   <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1185,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A82601E-B805-4FEA-88B2-FF8205CE9F7B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A299EA3-261B-469A-BE56-5901C2149465}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2069,47 +2078,43 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,45 +2125,41 @@
       <c r="C20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,100 +2168,94 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>446</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>468450</v>
+        <v>821</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="H22" s="7">
-        <v>215</v>
-      </c>
-      <c r="I22" s="7">
-        <v>220121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="M22" s="7">
-        <v>661</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>688572</v>
+        <v>821</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,49 +2264,47 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>3855</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M23" s="7">
-        <v>4</v>
-      </c>
-      <c r="N23" s="7">
-        <v>3855</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,63 +2313,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>821</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>821</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>446</v>
+      </c>
+      <c r="D25" s="7">
+        <v>468450</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="7">
+        <v>215</v>
+      </c>
+      <c r="I25" s="7">
+        <v>220121</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="7">
+        <v>661</v>
+      </c>
+      <c r="N25" s="7">
+        <v>688572</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3855</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3855</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>450</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>472305</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7">
         <v>215</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>220121</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="7">
         <v>665</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>692427</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>80</v>
+      <c r="O27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2389,8 +2536,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F266C616-51C7-4B15-94CA-630102E6D78F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07390FD3-CCB8-4FBD-A02D-D78245E9D3CF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2406,7 +2553,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2516,7 +2663,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -2531,7 +2678,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -2546,7 +2693,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -2570,7 +2717,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2585,7 +2732,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2600,7 +2747,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,7 +2818,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -2701,7 +2848,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -2725,7 +2872,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2755,7 +2902,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,7 +2973,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -2841,7 +2988,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -2856,7 +3003,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -2880,7 +3027,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2895,7 +3042,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2910,7 +3057,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,7 +3128,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -3011,7 +3158,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -3035,7 +3182,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3065,7 +3212,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,10 +3280,10 @@
         <v>43114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3151,7 +3298,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -3163,10 +3310,10 @@
         <v>67696</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3184,13 +3331,13 @@
         <v>813</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3205,7 +3352,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3214,13 +3361,13 @@
         <v>813</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,39 +3433,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,39 +3478,39 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,92 +3523,86 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>317</v>
-      </c>
-      <c r="D22" s="7">
-        <v>330639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>198</v>
-      </c>
-      <c r="I22" s="7">
-        <v>215828</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="M22" s="7">
-        <v>515</v>
-      </c>
-      <c r="N22" s="7">
-        <v>546466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,49 +3611,43 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7">
-        <v>813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
-      </c>
-      <c r="N23" s="7">
-        <v>813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,63 +3656,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>317</v>
+      </c>
+      <c r="D25" s="7">
+        <v>330639</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="7">
+        <v>198</v>
+      </c>
+      <c r="I25" s="7">
+        <v>215828</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="7">
+        <v>515</v>
+      </c>
+      <c r="N25" s="7">
+        <v>546466</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>813</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>813</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>318</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>331452</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7">
         <v>198</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>215828</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="7">
         <v>516</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>547279</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>80</v>
+      <c r="O27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3590,8 +3875,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D8BFBD-64B8-4B49-9525-39DE9EC37130}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAB4CF9-8BDE-438B-9760-D1A4250B703E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3607,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3717,7 +4002,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -3732,7 +4017,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -3747,7 +4032,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -3771,7 +4056,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3786,7 +4071,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3801,7 +4086,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,10 +4154,10 @@
         <v>80589</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3887,7 +4172,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -3899,10 +4184,10 @@
         <v>126880</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3920,13 +4205,13 @@
         <v>983</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3941,7 +4226,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3950,13 +4235,13 @@
         <v>983</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,10 +4309,10 @@
         <v>111251</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4042,7 +4327,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4057,7 +4342,7 @@
         <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4075,13 +4360,13 @@
         <v>1872</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4096,7 +4381,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -4111,7 +4396,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,10 +4464,10 @@
         <v>90393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4194,10 +4479,10 @@
         <v>54995</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4209,10 +4494,10 @@
         <v>145388</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4230,13 +4515,13 @@
         <v>1035</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4245,13 +4530,13 @@
         <v>1112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4260,13 +4545,13 @@
         <v>2147</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,7 +4622,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -4352,7 +4637,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -4367,7 +4652,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -4391,7 +4676,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4406,7 +4691,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4421,7 +4706,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,7 +4777,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -4502,13 +4787,13 @@
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4520,7 +4805,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -4544,20 +4829,20 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4572,7 +4857,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4885,13 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -4626,55 +4911,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>318</v>
-      </c>
-      <c r="D22" s="7">
-        <v>346111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>206</v>
-      </c>
-      <c r="I22" s="7">
-        <v>215186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M22" s="7">
-        <v>524</v>
-      </c>
-      <c r="N22" s="7">
-        <v>561297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,49 +4962,43 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
-      </c>
-      <c r="D23" s="7">
-        <v>3890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="M23" s="7">
-        <v>5</v>
-      </c>
-      <c r="N23" s="7">
-        <v>5002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,63 +5007,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>318</v>
+      </c>
+      <c r="D25" s="7">
+        <v>346111</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" s="7">
+        <v>206</v>
+      </c>
+      <c r="I25" s="7">
+        <v>215186</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="7">
+        <v>524</v>
+      </c>
+      <c r="N25" s="7">
+        <v>561297</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3890</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1112</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5002</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>322</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>350001</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7">
         <v>207</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>216298</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="7">
         <v>529</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>566299</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>80</v>
+      <c r="O27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4803,8 +5226,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A265501-6EB9-4C5E-9D3B-EE068B1BC954}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA48AEAE-4693-4129-A820-67022902F1E8}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4820,7 +5243,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4924,13 +5347,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>6398</v>
+        <v>5989</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -4939,13 +5362,13 @@
         <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>17037</v>
+        <v>15344</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4954,7 +5377,7 @@
         <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>23435</v>
+        <v>21333</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>13</v>
@@ -4984,7 +5407,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4999,7 +5422,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5026,7 +5449,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>6398</v>
+        <v>5989</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -5041,7 +5464,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>17037</v>
+        <v>15344</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -5056,7 +5479,7 @@
         <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>23435</v>
+        <v>21333</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>15</v>
@@ -5079,13 +5502,13 @@
         <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>58432</v>
+        <v>59074</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -5094,13 +5517,13 @@
         <v>47</v>
       </c>
       <c r="I7" s="7">
-        <v>54951</v>
+        <v>49067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -5109,10 +5532,10 @@
         <v>89</v>
       </c>
       <c r="N7" s="7">
-        <v>113383</v>
+        <v>108140</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>186</v>
@@ -5145,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>946</v>
+        <v>882</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>188</v>
@@ -5160,16 +5583,16 @@
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>946</v>
+        <v>882</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,7 +5604,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="7">
-        <v>58432</v>
+        <v>59074</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -5196,7 +5619,7 @@
         <v>48</v>
       </c>
       <c r="I9" s="7">
-        <v>55897</v>
+        <v>49949</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -5211,7 +5634,7 @@
         <v>90</v>
       </c>
       <c r="N9" s="7">
-        <v>114329</v>
+        <v>109022</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -5234,13 +5657,13 @@
         <v>95</v>
       </c>
       <c r="D10" s="7">
-        <v>96787</v>
+        <v>93838</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -5249,10 +5672,10 @@
         <v>116</v>
       </c>
       <c r="I10" s="7">
-        <v>80595</v>
+        <v>75133</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>193</v>
@@ -5264,16 +5687,16 @@
         <v>211</v>
       </c>
       <c r="N10" s="7">
-        <v>177382</v>
+        <v>168972</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,46 +5708,46 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1953</v>
+        <v>1693</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>2408</v>
+        <v>2112</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,7 +5759,7 @@
         <v>97</v>
       </c>
       <c r="D12" s="7">
-        <v>98740</v>
+        <v>95531</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -5351,7 +5774,7 @@
         <v>117</v>
       </c>
       <c r="I12" s="7">
-        <v>81050</v>
+        <v>75552</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -5366,7 +5789,7 @@
         <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>179790</v>
+        <v>171084</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -5389,13 +5812,13 @@
         <v>112</v>
       </c>
       <c r="D13" s="7">
-        <v>113567</v>
+        <v>107550</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -5404,31 +5827,31 @@
         <v>188</v>
       </c>
       <c r="I13" s="7">
-        <v>141658</v>
+        <v>152797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>300</v>
       </c>
       <c r="N13" s="7">
-        <v>255227</v>
+        <v>260346</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,46 +5863,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1027</v>
+        <v>1003</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>2373</v>
+        <v>2152</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>3399</v>
+        <v>3156</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,7 +5914,7 @@
         <v>113</v>
       </c>
       <c r="D15" s="7">
-        <v>114594</v>
+        <v>108553</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -5506,7 +5929,7 @@
         <v>191</v>
       </c>
       <c r="I15" s="7">
-        <v>144031</v>
+        <v>154949</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -5521,7 +5944,7 @@
         <v>304</v>
       </c>
       <c r="N15" s="7">
-        <v>258626</v>
+        <v>263502</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -5544,13 +5967,13 @@
         <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>71763</v>
+        <v>67436</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -5559,13 +5982,13 @@
         <v>101</v>
       </c>
       <c r="I16" s="7">
-        <v>59906</v>
+        <v>55345</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -5574,13 +5997,13 @@
         <v>178</v>
       </c>
       <c r="N16" s="7">
-        <v>131669</v>
+        <v>122781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -5604,37 +6027,37 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,7 +6069,7 @@
         <v>77</v>
       </c>
       <c r="D18" s="7">
-        <v>71763</v>
+        <v>67436</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>15</v>
@@ -5661,7 +6084,7 @@
         <v>102</v>
       </c>
       <c r="I18" s="7">
-        <v>60065</v>
+        <v>55507</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -5676,7 +6099,7 @@
         <v>179</v>
       </c>
       <c r="N18" s="7">
-        <v>131828</v>
+        <v>122943</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>15</v>
@@ -5699,13 +6122,13 @@
         <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>3090</v>
+        <v>2923</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -5714,13 +6137,13 @@
         <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>3131</v>
+        <v>2914</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5729,13 +6152,13 @@
         <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>6221</v>
+        <v>5836</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -5759,7 +6182,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5774,7 +6197,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5789,7 +6212,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,7 +6224,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>3090</v>
+        <v>2923</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>15</v>
@@ -5816,7 +6239,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>3131</v>
+        <v>2914</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>15</v>
@@ -5831,7 +6254,7 @@
         <v>11</v>
       </c>
       <c r="N21" s="7">
-        <v>6221</v>
+        <v>5836</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>15</v>
@@ -5845,55 +6268,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>335</v>
-      </c>
-      <c r="D22" s="7">
-        <v>350039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>227</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>228</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>468</v>
-      </c>
-      <c r="I22" s="7">
-        <v>357279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>229</v>
+        <v>63</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>227</v>
+        <v>63</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>230</v>
+        <v>63</v>
       </c>
       <c r="M22" s="7">
-        <v>803</v>
-      </c>
-      <c r="N22" s="7">
-        <v>707316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>231</v>
+        <v>63</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>232</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>233</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,49 +6319,43 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>237</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="M23" s="7">
-        <v>9</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>241</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,63 +6364,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>335</v>
+      </c>
+      <c r="D25" s="7">
+        <v>336809</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="7">
+        <v>468</v>
+      </c>
+      <c r="I25" s="7">
+        <v>350600</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" s="7">
+        <v>803</v>
+      </c>
+      <c r="N25" s="7">
+        <v>687409</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2696</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H26" s="7">
+        <v>6</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3615</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M26" s="7">
+        <v>9</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6311</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>338</v>
       </c>
-      <c r="D24" s="7">
-        <v>353018</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>339505</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7">
         <v>474</v>
       </c>
-      <c r="I24" s="7">
-        <v>361211</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>354215</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="7">
         <v>812</v>
       </c>
-      <c r="N24" s="7">
-        <v>714228</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>80</v>
+      <c r="N27" s="7">
+        <v>693720</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
